--- a/ActiTime-Automation/Controller/data_Controller.xlsx
+++ b/ActiTime-Automation/Controller/data_Controller.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TEMP\CurrentWorkSpace\DemoDec2021Repository\ActiTime-Automation\Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EVENING_SEPTEMBER-2019_BATCH\Automation\ActiTime-Automation\Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -595,17 +595,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -633,7 +635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -647,7 +649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -661,7 +663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -675,7 +677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -689,7 +691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -703,7 +705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
